--- a/sysbench_PG15_AAGHT.xlsx
+++ b/sysbench_PG15_AAGHT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/demai/work/sysbenchCloudDB/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D42DE30-8207-FC45-BC8B-616393D0101C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{741A7E11-DA93-9041-B996-DDD18B866182}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6220" yWindow="500" windowWidth="31580" windowHeight="17800" xr2:uid="{45B40411-91F8-0F45-A2C0-032767CB5903}"/>
+    <workbookView xWindow="1580" yWindow="500" windowWidth="36220" windowHeight="17800" xr2:uid="{45B40411-91F8-0F45-A2C0-032767CB5903}"/>
   </bookViews>
   <sheets>
     <sheet name="agg" sheetId="1" r:id="rId1"/>
@@ -21,14 +21,6 @@
     <sheet name="Huawei" sheetId="10" r:id="rId6"/>
     <sheet name="Tencent" sheetId="7" r:id="rId7"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId8"/>
-    <externalReference r:id="rId9"/>
-    <externalReference r:id="rId10"/>
-    <externalReference r:id="rId11"/>
-    <externalReference r:id="rId12"/>
-    <externalReference r:id="rId13"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -71,7 +63,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="28">
   <si>
     <t>Thread</t>
   </si>
@@ -149,6 +141,12 @@
   </si>
   <si>
     <t>TPS/Threads</t>
+  </si>
+  <si>
+    <t>HA(Alibaba, Huawei and Tencent) vs. SingleDB(GCP and AWS)</t>
+  </si>
+  <si>
+    <t>All single DB</t>
   </si>
 </sst>
 </file>
@@ -1543,6 +1541,691 @@
               </a:defRPr>
             </a:pPr>
             <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Sysbench - GCP PG15 - Enterprise </a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>Plus</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t> 8C64GB</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>P95  - CPU % (lower = better)</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>p95 (ms)</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:numRef>
+              <c:f>GCP_EP!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GCP_EP!$D$2:$D$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>9.91</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>8.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.09</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>11.87</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>17.95</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>35.590000000000003</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>74.459999999999994</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6305-D34D-874C-3FFB745CB326}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="172"/>
+        <c:overlap val="13"/>
+        <c:axId val="667354928"/>
+        <c:axId val="667229232"/>
+      </c:barChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>GCP_EP!$E$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU %</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>GCP_EP!$A$2:$A$8</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>GCP_EP!$E$2:$E$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0%</c:formatCode>
+                <c:ptCount val="7"/>
+                <c:pt idx="0">
+                  <c:v>7.0000000000000007E-2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.13500000000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.29499999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.55000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.84</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.96499999999999997</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.98899999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6305-D34D-874C-3FFB745CB326}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="632598128"/>
+        <c:axId val="1255685039"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="632598128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1255685039"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1255685039"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>CPU %</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="632598128"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="667229232"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>P95 latency (ms)</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="667354928"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="667354928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="667229232"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
               <a:rPr lang="en-US"/>
               <a:t>Sysbench</a:t>
             </a:r>
@@ -2110,7 +2793,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -2773,7 +3456,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3374,7 +4057,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -3829,7 +4512,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -4430,7 +5113,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -5212,7 +5895,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>agg!$A$46</c:f>
+              <c:f>agg!$A$47</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5375,7 +6058,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>agg!$B$45:$H$45</c:f>
+              <c:f>agg!$B$46:$H$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5405,7 +6088,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>agg!$B$46:$H$46</c:f>
+              <c:f>agg!$B$47:$H$47</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5445,7 +6128,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>agg!$A$47</c:f>
+              <c:f>agg!$A$48</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5587,7 +6270,7 @@
           </c:dLbls>
           <c:cat>
             <c:numRef>
-              <c:f>agg!$B$45:$H$45</c:f>
+              <c:f>agg!$B$46:$H$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5617,7 +6300,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>agg!$B$47:$H$47</c:f>
+              <c:f>agg!$B$48:$H$48</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5657,7 +6340,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>agg!$A$48</c:f>
+              <c:f>agg!$A$49</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5692,7 +6375,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>agg!$B$45:$H$45</c:f>
+              <c:f>agg!$B$46:$H$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5722,7 +6405,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>agg!$B$48:$H$48</c:f>
+              <c:f>agg!$B$49:$H$49</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5762,7 +6445,7 @@
           <c:order val="3"/>
           <c:tx>
             <c:strRef>
-              <c:f>agg!$A$49</c:f>
+              <c:f>agg!$A$50</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5797,7 +6480,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>agg!$B$45:$H$45</c:f>
+              <c:f>agg!$B$46:$H$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5827,7 +6510,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>agg!$B$49:$H$49</c:f>
+              <c:f>agg!$B$50:$H$50</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5867,7 +6550,7 @@
           <c:order val="4"/>
           <c:tx>
             <c:strRef>
-              <c:f>agg!$A$50</c:f>
+              <c:f>agg!$A$51</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -5902,7 +6585,7 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>agg!$B$45:$H$45</c:f>
+              <c:f>agg!$B$46:$H$46</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="7"/>
@@ -5932,7 +6615,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>agg!$B$50:$H$50</c:f>
+              <c:f>agg!$B$51:$H$51</c:f>
               <c:numCache>
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="7"/>
@@ -7389,10 +8072,1046 @@
     <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
     <c:pageSetup/>
   </c:printSettings>
+  <c:userShapes r:id="rId3"/>
 </c:chartSpace>
 </file>
 
 <file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>PG15: Sysbench Read_Write</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" b="1"/>
+              <a:t>TPS/m$ = TPS/$database-cost-per-month</a:t>
+            </a:r>
+          </a:p>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:sysClr val="windowText" lastClr="000000">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:sysClr>
+                </a:solidFill>
+              </a:rPr>
+              <a:t>(higher = better)</a:t>
+            </a:r>
+            <a:endParaRPr lang="en-US" b="1"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>agg!$A$38</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Alibaba</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>agg!$F$37:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>agg!$F$38:$H$38</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>8.4007969276342536</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.262488039531807</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>15.447026594838322</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-31ED-A447-B610-264E1E55A7B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>agg!$A$39</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>AWS</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent4"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>agg!$F$37:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>agg!$F$39:$H$39</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>1.0985406319489754</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2766075018974448</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.8591763092368943</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-31ED-A447-B610-264E1E55A7B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="4"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>agg!$A$40</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GCP_EP</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent5"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>agg!$F$37:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>agg!$F$40:$H$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3.3221573208722739</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7784916926272065</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.6219236760124609</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-31ED-A447-B610-264E1E55A7B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="5"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>agg!$A$41</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Huawei</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent6"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>agg!$F$37:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>agg!$F$41:$H$41</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>9.3988089947560223</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>9.8625751785026523</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10.039611293810921</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000004-31ED-A447-B610-264E1E55A7B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="4"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>agg!$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Tencent</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="1"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}">
+                <c15:showLeaderLines val="1"/>
+                <c15:leaderLines>
+                  <c:spPr>
+                    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="35000"/>
+                          <a:lumOff val="65000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:round/>
+                    </a:ln>
+                    <a:effectLst/>
+                  </c:spPr>
+                </c15:leaderLines>
+              </c:ext>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:numRef>
+              <c:f>agg!$F$37:$H$37</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>agg!$F$42:$H$42</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>5.1456392243692974</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.1694606816961892</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.2140998892914654</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-31ED-A447-B610-264E1E55A7B1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="315494383"/>
+        <c:axId val="315498591"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="315494383"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>sysbench</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="en-US" baseline="0"/>
+                  <a:t> threads</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315498591"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="315498591"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>TPS/m$</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="315494383"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId3"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -7993,7 +9712,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -8656,7 +10375,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9257,7 +10976,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -9920,7 +11639,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="en-US"/>
@@ -10529,691 +12248,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Sysbench - GCP PG15 - Enterprise </a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="1" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>Plus</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t> 8C64GB</a:t>
-            </a:r>
-          </a:p>
-          <a:p>
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-US" sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:sysClr val="windowText" lastClr="000000">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:sysClr>
-                </a:solidFill>
-              </a:rPr>
-              <a:t>P95  - CPU % (lower = better)</a:t>
-            </a:r>
-          </a:p>
-        </c:rich>
-      </c:tx>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:barChart>
-        <c:barDir val="col"/>
-        <c:grouping val="clustered"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:v>p95 (ms)</c:v>
-          </c:tx>
-          <c:spPr>
-            <a:solidFill>
-              <a:schemeClr val="accent4"/>
-            </a:solidFill>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:invertIfNegative val="0"/>
-          <c:cat>
-            <c:numRef>
-              <c:f>GCP_EP!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>GCP_EP!$D$2:$D$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>9.91</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>8.9</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>10.09</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>11.87</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>17.95</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>35.590000000000003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>74.459999999999994</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-6305-D34D-874C-3FFB745CB326}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:gapWidth val="172"/>
-        <c:overlap val="13"/>
-        <c:axId val="667354928"/>
-        <c:axId val="667229232"/>
-      </c:barChart>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="4"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>GCP_EP!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>CPU %</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent5"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>GCP_EP!$A$2:$A$8</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>128</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>GCP_EP!$E$2:$E$8</c:f>
-              <c:numCache>
-                <c:formatCode>0.0%</c:formatCode>
-                <c:ptCount val="7"/>
-                <c:pt idx="0">
-                  <c:v>7.0000000000000007E-2</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.13500000000000001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.29499999999999998</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.55000000000000004</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.84</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.96499999999999997</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.98899999999999999</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-6305-D34D-874C-3FFB745CB326}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:marker val="1"/>
-        <c:smooth val="0"/>
-        <c:axId val="632598128"/>
-        <c:axId val="1255685039"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="632598128"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="1255685039"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="1255685039"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>CPU %</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="0.0%" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="632598128"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="667229232"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="r"/>
-        <c:title>
-          <c:tx>
-            <c:rich>
-              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-              <a:lstStyle/>
-              <a:p>
-                <a:pPr>
-                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                    <a:solidFill>
-                      <a:schemeClr val="tx1">
-                        <a:lumMod val="65000"/>
-                        <a:lumOff val="35000"/>
-                      </a:schemeClr>
-                    </a:solidFill>
-                    <a:latin typeface="+mn-lt"/>
-                    <a:ea typeface="+mn-ea"/>
-                    <a:cs typeface="+mn-cs"/>
-                  </a:defRPr>
-                </a:pPr>
-                <a:r>
-                  <a:rPr lang="en-US"/>
-                  <a:t>P95 latency (ms)</a:t>
-                </a:r>
-              </a:p>
-            </c:rich>
-          </c:tx>
-          <c:overlay val="0"/>
-          <c:spPr>
-            <a:noFill/>
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:txPr>
-            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-            <a:lstStyle/>
-            <a:p>
-              <a:pPr>
-                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                  <a:solidFill>
-                    <a:schemeClr val="tx1">
-                      <a:lumMod val="65000"/>
-                      <a:lumOff val="35000"/>
-                    </a:schemeClr>
-                  </a:solidFill>
-                  <a:latin typeface="+mn-lt"/>
-                  <a:ea typeface="+mn-ea"/>
-                  <a:cs typeface="+mn-cs"/>
-                </a:defRPr>
-              </a:pPr>
-              <a:endParaRPr lang="en-US"/>
-            </a:p>
-          </c:txPr>
-        </c:title>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="667354928"/>
-        <c:crosses val="max"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:catAx>
-        <c:axId val="667354928"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="1"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="667229232"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="r"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:extLst>
-      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
-        <c16r3:dataDisplayOptions16>
-          <c16r3:dispNaAsBlank val="1"/>
-        </c16r3:dataDisplayOptions16>
-      </c:ext>
-    </c:extLst>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -11455,6 +12489,46 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -15413,8 +16487,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
+<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -15522,6 +16596,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -15532,6 +16611,11 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -15563,6 +16647,9 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -15916,8 +17003,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="332">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -16419,8 +17506,8 @@
 </cs:chartStyle>
 </file>
 
-<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
     <cs:fillRef idx="0"/>
@@ -16528,11 +17615,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint>
   <cs:dataPoint3D>
     <cs:lnRef idx="0"/>
@@ -16543,11 +17625,6 @@
     <cs:fontRef idx="minor">
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
   </cs:dataPoint3D>
   <cs:dataPointLine>
     <cs:lnRef idx="0">
@@ -16579,9 +17656,509 @@
       <a:schemeClr val="tx1"/>
     </cs:fontRef>
     <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:solidFill>
-        <a:schemeClr val="phClr"/>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
       </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
       <a:ln w="9525">
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -19557,13 +21134,13 @@
     <xdr:from>
       <xdr:col>9</xdr:col>
       <xdr:colOff>12700</xdr:colOff>
-      <xdr:row>40</xdr:row>
+      <xdr:row>41</xdr:row>
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>17</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>61</xdr:row>
+      <xdr:row>62</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19599,7 +21176,7 @@
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>800100</xdr:colOff>
-      <xdr:row>39</xdr:row>
+      <xdr:row>40</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -19625,10 +21202,175 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>165100</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>25</xdr:col>
+      <xdr:colOff>139700</xdr:colOff>
+      <xdr:row>40</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{648C73FE-43C6-EF45-91DA-27C3A75717EA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
 <file path=xl/drawings/drawing10.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>69850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>444500</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2CAD5E-F3FC-964C-B365-3AECD8342083}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>558800</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>25400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B17E0E-EB26-C341-BF2A-A3EF7E92475D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.67269</cdr:x>
+      <cdr:y>0.16635</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.98937</cdr:x>
+      <cdr:y>0.23518</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C79AB19-E5B3-5073-FC7E-DA6AB3D5C604}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4019560" y="552462"/>
+          <a:ext cx="1892290" cy="228588"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>TPS/m$ = TPS/$monthcost</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19709,7 +21451,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -19755,7 +21497,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing14.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19836,7 +21578,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing15.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -19883,6 +21625,180 @@
 </file>
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.72973</cdr:x>
+      <cdr:y>0.02778</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.12153</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15854147-EF90-82A1-14B6-6E74DAF1258B}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="4800600" y="101600"/>
+          <a:ext cx="1778000" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>HA: Ali, Huawei, Tencent</a:t>
+          </a:r>
+        </a:p>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Single DB: AWS GCP</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.7722</cdr:x>
+      <cdr:y>0.07986</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.17361</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F22345BF-7695-373F-4792-B761DA04FAD7}"/>
+            </a:ext>
+          </a:extLst>
+        </cdr:cNvPr>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5080000" y="292100"/>
+          <a:ext cx="1498600" cy="342900"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="FF0000"/>
+              </a:solidFill>
+            </a:rPr>
+            <a:t>Single DB setup </a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -19963,7 +21879,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -20009,7 +21925,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20090,7 +22006,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -20136,7 +22052,7 @@
 </c:userShapes>
 </file>
 
-<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
@@ -20217,7 +22133,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
 <c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
     <cdr:from>
@@ -20261,991 +22177,6 @@
     </cdr:sp>
   </cdr:relSizeAnchor>
 </c:userShapes>
-</file>
-
-<file path=xl/drawings/drawing8.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>69850</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>444500</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>139700</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A2CAD5E-F3FC-964C-B365-3AECD8342083}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>558800</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>25400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{14B17E0E-EB26-C341-BF2A-A3EF7E92475D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
-<file path=xl/drawings/drawing9.xml><?xml version="1.0" encoding="utf-8"?>
-<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
-    <cdr:from>
-      <cdr:x>0.67269</cdr:x>
-      <cdr:y>0.16635</cdr:y>
-    </cdr:from>
-    <cdr:to>
-      <cdr:x>0.98937</cdr:x>
-      <cdr:y>0.23518</cdr:y>
-    </cdr:to>
-    <cdr:sp macro="" textlink="">
-      <cdr:nvSpPr>
-        <cdr:cNvPr id="2" name="TextBox 1">
-          <a:extLst xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C79AB19-E5B3-5073-FC7E-DA6AB3D5C604}"/>
-            </a:ext>
-          </a:extLst>
-        </cdr:cNvPr>
-        <cdr:cNvSpPr txBox="1"/>
-      </cdr:nvSpPr>
-      <cdr:spPr>
-        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:off x="4019560" y="552462"/>
-          <a:ext cx="1892290" cy="228588"/>
-        </a:xfrm>
-        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </cdr:spPr>
-      <cdr:txBody>
-        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="square" rtlCol="0"/>
-        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-          <a:r>
-            <a:rPr lang="en-US" sz="1100"/>
-            <a:t>TPS/m$ = TPS/$monthcost</a:t>
-          </a:r>
-        </a:p>
-      </cdr:txBody>
-    </cdr:sp>
-  </cdr:relSizeAnchor>
-</c:userShapes>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>TPS</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>CPU %</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>TPS/m$</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>2</v>
-          </cell>
-          <cell r="B2">
-            <v>219.97</v>
-          </cell>
-          <cell r="D2">
-            <v>10.27</v>
-          </cell>
-          <cell r="E2">
-            <v>0.03</v>
-          </cell>
-          <cell r="F2">
-            <v>0.26603322933440687</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>4</v>
-          </cell>
-          <cell r="B3">
-            <v>373.31</v>
-          </cell>
-          <cell r="D3">
-            <v>12.75</v>
-          </cell>
-          <cell r="E3">
-            <v>0.06</v>
-          </cell>
-          <cell r="F3">
-            <v>0.45148367887815355</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>8</v>
-          </cell>
-          <cell r="B4">
-            <v>714.87</v>
-          </cell>
-          <cell r="D4">
-            <v>13.46</v>
-          </cell>
-          <cell r="E4">
-            <v>0.12</v>
-          </cell>
-          <cell r="F4">
-            <v>0.86456868961352662</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>16</v>
-          </cell>
-          <cell r="B5">
-            <v>1326.32</v>
-          </cell>
-          <cell r="D5">
-            <v>18.95</v>
-          </cell>
-          <cell r="E5">
-            <v>0.255</v>
-          </cell>
-          <cell r="F5">
-            <v>1.6040605206655931</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>32</v>
-          </cell>
-          <cell r="B6">
-            <v>2127.34</v>
-          </cell>
-          <cell r="D6">
-            <v>29.19</v>
-          </cell>
-          <cell r="E6">
-            <v>0.45</v>
-          </cell>
-          <cell r="F6">
-            <v>2.5728196121846487</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>64</v>
-          </cell>
-          <cell r="B7">
-            <v>2964.04</v>
-          </cell>
-          <cell r="D7">
-            <v>44.17</v>
-          </cell>
-          <cell r="E7">
-            <v>0.69</v>
-          </cell>
-          <cell r="F7">
-            <v>3.5847303408480946</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>128</v>
-          </cell>
-          <cell r="B8">
-            <v>2982.4949999999999</v>
-          </cell>
-          <cell r="D8">
-            <v>80.754999999999995</v>
-          </cell>
-          <cell r="E8">
-            <v>0.78</v>
-          </cell>
-          <cell r="F8">
-            <v>3.6070499446457327</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>TPS</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>CPU %</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>TPS/m$</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>2</v>
-          </cell>
-          <cell r="B2">
-            <v>212.86</v>
-          </cell>
-          <cell r="D2">
-            <v>11.45</v>
-          </cell>
-          <cell r="E2">
-            <v>0.02</v>
-          </cell>
-          <cell r="F2">
-            <v>0.27900331616268864</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>4</v>
-          </cell>
-          <cell r="B3">
-            <v>437.77</v>
-          </cell>
-          <cell r="D3">
-            <v>9.91</v>
-          </cell>
-          <cell r="E3">
-            <v>0.05</v>
-          </cell>
-          <cell r="F3">
-            <v>0.57380100402396028</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>8</v>
-          </cell>
-          <cell r="B4">
-            <v>869.43</v>
-          </cell>
-          <cell r="D4">
-            <v>9.91</v>
-          </cell>
-          <cell r="E4">
-            <v>0.12</v>
-          </cell>
-          <cell r="F4">
-            <v>1.1395934096181826</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>16</v>
-          </cell>
-          <cell r="B5">
-            <v>1726.85</v>
-          </cell>
-          <cell r="D5">
-            <v>10.09</v>
-          </cell>
-          <cell r="E5">
-            <v>0.28000000000000003</v>
-          </cell>
-          <cell r="F5">
-            <v>2.2634448769874038</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>32</v>
-          </cell>
-          <cell r="B6">
-            <v>3204.61</v>
-          </cell>
-          <cell r="D6">
-            <v>10.84</v>
-          </cell>
-          <cell r="E6">
-            <v>0.62</v>
-          </cell>
-          <cell r="F6">
-            <v>4.2003984638171268</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>64</v>
-          </cell>
-          <cell r="B7">
-            <v>5440.64</v>
-          </cell>
-          <cell r="D7">
-            <v>13.22</v>
-          </cell>
-          <cell r="E7">
-            <v>1</v>
-          </cell>
-          <cell r="F7">
-            <v>7.1312440197659033</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>128</v>
-          </cell>
-          <cell r="B8">
-            <v>5892.5</v>
-          </cell>
-          <cell r="D8">
-            <v>34.950000000000003</v>
-          </cell>
-          <cell r="E8">
-            <v>1</v>
-          </cell>
-          <cell r="F8">
-            <v>7.7235132974191609</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>TPS</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>CPU %</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>TPS/m$</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>2</v>
-          </cell>
-          <cell r="B2">
-            <v>244.95499999999998</v>
-          </cell>
-          <cell r="D2">
-            <v>11.96</v>
-          </cell>
-          <cell r="E2">
-            <v>0.1</v>
-          </cell>
-          <cell r="F2">
-            <v>0.32616742786381003</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>4</v>
-          </cell>
-          <cell r="B3">
-            <v>445.22</v>
-          </cell>
-          <cell r="D3">
-            <v>14.215</v>
-          </cell>
-          <cell r="E3">
-            <v>0.19500000000000001</v>
-          </cell>
-          <cell r="F3">
-            <v>0.59282832452297574</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>8</v>
-          </cell>
-          <cell r="B4">
-            <v>739.99</v>
-          </cell>
-          <cell r="D4">
-            <v>19</v>
-          </cell>
-          <cell r="E4">
-            <v>0.33</v>
-          </cell>
-          <cell r="F4">
-            <v>0.98532642707820139</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>16</v>
-          </cell>
-          <cell r="B5">
-            <v>661.48</v>
-          </cell>
-          <cell r="D5">
-            <v>68.155000000000001</v>
-          </cell>
-          <cell r="E5">
-            <v>0.26</v>
-          </cell>
-          <cell r="F5">
-            <v>0.88078720656183007</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>32</v>
-          </cell>
-          <cell r="B6">
-            <v>825.0150000000001</v>
-          </cell>
-          <cell r="D6">
-            <v>79.414999999999992</v>
-          </cell>
-          <cell r="E6">
-            <v>0.32</v>
-          </cell>
-          <cell r="F6">
-            <v>1.0985406319489754</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>64</v>
-          </cell>
-          <cell r="B7">
-            <v>958.745</v>
-          </cell>
-          <cell r="D7">
-            <v>102.15</v>
-          </cell>
-          <cell r="E7">
-            <v>0.45</v>
-          </cell>
-          <cell r="F7">
-            <v>1.2766075018974448</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>128</v>
-          </cell>
-          <cell r="B8">
-            <v>1396.26</v>
-          </cell>
-          <cell r="D8">
-            <v>136.17000000000002</v>
-          </cell>
-          <cell r="E8">
-            <v>0.62</v>
-          </cell>
-          <cell r="F8">
-            <v>1.8591763092368943</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>TPS</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>TPS/m$</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>2</v>
-          </cell>
-          <cell r="B2">
-            <v>386.98500000000001</v>
-          </cell>
-          <cell r="D2">
-            <v>7.335</v>
-          </cell>
-          <cell r="F2">
-            <v>0.5732601546529198</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>4</v>
-          </cell>
-          <cell r="B3">
-            <v>793.3</v>
-          </cell>
-          <cell r="D3">
-            <v>7.17</v>
-          </cell>
-          <cell r="F3">
-            <v>1.175154801054721</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>8</v>
-          </cell>
-          <cell r="B4">
-            <v>1424.76</v>
-          </cell>
-          <cell r="D4">
-            <v>8.370000000000001</v>
-          </cell>
-          <cell r="F4">
-            <v>2.1105679495155987</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>16</v>
-          </cell>
-          <cell r="B5">
-            <v>2296.6400000000003</v>
-          </cell>
-          <cell r="D5">
-            <v>10.4</v>
-          </cell>
-          <cell r="F5">
-            <v>3.4021272183213354</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>32</v>
-          </cell>
-          <cell r="B6">
-            <v>3172.38</v>
-          </cell>
-          <cell r="D6">
-            <v>15.695</v>
-          </cell>
-          <cell r="F6">
-            <v>4.6994044973780111</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>64</v>
-          </cell>
-          <cell r="B7">
-            <v>3328.915</v>
-          </cell>
-          <cell r="D7">
-            <v>34.335000000000001</v>
-          </cell>
-          <cell r="F7">
-            <v>4.9312875892513262</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>128</v>
-          </cell>
-          <cell r="B8">
-            <v>3388.67</v>
-          </cell>
-          <cell r="D8">
-            <v>69.569999999999993</v>
-          </cell>
-          <cell r="F8">
-            <v>5.0198056469054606</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink5.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>TPS</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>CPU %</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>TPS/m$</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>2</v>
-          </cell>
-          <cell r="B2">
-            <v>141.43</v>
-          </cell>
-          <cell r="D2">
-            <v>16.71</v>
-          </cell>
-          <cell r="E2">
-            <v>0.09</v>
-          </cell>
-          <cell r="F2">
-            <v>0.32201730418943536</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>4</v>
-          </cell>
-          <cell r="B3">
-            <v>285.43</v>
-          </cell>
-          <cell r="D3">
-            <v>16.71</v>
-          </cell>
-          <cell r="E3">
-            <v>0.16500000000000001</v>
-          </cell>
-          <cell r="F3">
-            <v>0.64988615664845173</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>8</v>
-          </cell>
-          <cell r="B4">
-            <v>521.16999999999996</v>
-          </cell>
-          <cell r="D4">
-            <v>19.649999999999999</v>
-          </cell>
-          <cell r="E4">
-            <v>0.31</v>
-          </cell>
-          <cell r="F4">
-            <v>1.1866347905282331</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>16</v>
-          </cell>
-          <cell r="B5">
-            <v>871.83</v>
-          </cell>
-          <cell r="D5">
-            <v>24.83</v>
-          </cell>
-          <cell r="E5">
-            <v>0.53500000000000003</v>
-          </cell>
-          <cell r="F5">
-            <v>1.9850409836065575</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>32</v>
-          </cell>
-          <cell r="B6">
-            <v>1293.6600000000001</v>
-          </cell>
-          <cell r="D6">
-            <v>36.89</v>
-          </cell>
-          <cell r="E6">
-            <v>0.82499999999999996</v>
-          </cell>
-          <cell r="F6">
-            <v>2.945491803278689</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>64</v>
-          </cell>
-          <cell r="B7">
-            <v>1443.26</v>
-          </cell>
-          <cell r="D7">
-            <v>81.48</v>
-          </cell>
-          <cell r="E7">
-            <v>0.93</v>
-          </cell>
-          <cell r="F7">
-            <v>3.286111111111111</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>128</v>
-          </cell>
-          <cell r="B8">
-            <v>1401</v>
-          </cell>
-          <cell r="D8">
-            <v>173.58</v>
-          </cell>
-          <cell r="E8">
-            <v>0.91</v>
-          </cell>
-          <cell r="F8">
-            <v>3.1898907103825138</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
-<file path=xl/externalLinks/externalLink6.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="Sheet1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="1">
-          <cell r="B1" t="str">
-            <v>TPS</v>
-          </cell>
-          <cell r="E1" t="str">
-            <v>CPU %</v>
-          </cell>
-          <cell r="F1" t="str">
-            <v>TPS/m$</v>
-          </cell>
-        </row>
-        <row r="2">
-          <cell r="A2">
-            <v>2</v>
-          </cell>
-          <cell r="B2">
-            <v>240.9</v>
-          </cell>
-          <cell r="D2">
-            <v>9.91</v>
-          </cell>
-          <cell r="E2">
-            <v>7.0000000000000007E-2</v>
-          </cell>
-          <cell r="F2">
-            <v>0.31269470404984423</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3">
-            <v>4</v>
-          </cell>
-          <cell r="B3">
-            <v>508.23</v>
-          </cell>
-          <cell r="D3">
-            <v>8.9</v>
-          </cell>
-          <cell r="E3">
-            <v>0.13500000000000001</v>
-          </cell>
-          <cell r="F3">
-            <v>0.65969626168224305</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4">
-            <v>8</v>
-          </cell>
-          <cell r="B4">
-            <v>935.88</v>
-          </cell>
-          <cell r="D4">
-            <v>10.09</v>
-          </cell>
-          <cell r="E4">
-            <v>0.29499999999999998</v>
-          </cell>
-          <cell r="F4">
-            <v>1.2147975077881621</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5">
-            <v>16</v>
-          </cell>
-          <cell r="B5">
-            <v>1664.64</v>
-          </cell>
-          <cell r="D5">
-            <v>11.87</v>
-          </cell>
-          <cell r="E5">
-            <v>0.55000000000000004</v>
-          </cell>
-          <cell r="F5">
-            <v>2.160747663551402</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6">
-            <v>32</v>
-          </cell>
-          <cell r="B6">
-            <v>2559.39</v>
-          </cell>
-          <cell r="D6">
-            <v>17.95</v>
-          </cell>
-          <cell r="E6">
-            <v>0.84</v>
-          </cell>
-          <cell r="F6">
-            <v>3.3221573208722739</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7">
-            <v>64</v>
-          </cell>
-          <cell r="B7">
-            <v>2910.95</v>
-          </cell>
-          <cell r="D7">
-            <v>35.590000000000003</v>
-          </cell>
-          <cell r="E7">
-            <v>0.96499999999999997</v>
-          </cell>
-          <cell r="F7">
-            <v>3.7784916926272065</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8">
-            <v>128</v>
-          </cell>
-          <cell r="B8">
-            <v>2790.33</v>
-          </cell>
-          <cell r="D8">
-            <v>74.459999999999994</v>
-          </cell>
-          <cell r="E8">
-            <v>0.98899999999999999</v>
-          </cell>
-          <cell r="F8">
-            <v>3.6219236760124609</v>
-          </cell>
-        </row>
-      </sheetData>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -21545,10 +22476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B37FD431-06EC-BB4A-94C9-1A0BD92C8B3A}">
-  <dimension ref="A1:H50"/>
+  <dimension ref="A1:H51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45:H50"/>
+    <sheetView tabSelected="1" topLeftCell="A18" workbookViewId="0">
+      <selection activeCell="A35" sqref="A35:XFD35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -21810,6 +22741,11 @@
         <v>2982.4949999999999</v>
       </c>
     </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>26</v>
+      </c>
+    </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="10" t="s">
         <v>5</v>
@@ -22001,194 +22937,408 @@
         <v>3.6070499446457327</v>
       </c>
     </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B45">
+    <row r="35" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B35" s="9"/>
+      <c r="C35" s="9"/>
+      <c r="D35" s="9"/>
+      <c r="E35" s="9"/>
+      <c r="F35" s="9"/>
+      <c r="G35" s="9"/>
+      <c r="H35" s="9"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A36" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A37" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="B37">
         <v>2</v>
       </c>
-      <c r="C45">
+      <c r="C37">
         <v>4</v>
       </c>
-      <c r="D45">
+      <c r="D37">
         <v>8</v>
       </c>
-      <c r="E45">
+      <c r="E37">
         <v>16</v>
       </c>
-      <c r="F45">
+      <c r="F37">
         <v>32</v>
       </c>
-      <c r="G45">
+      <c r="G37">
         <v>64</v>
       </c>
-      <c r="H45">
+      <c r="H37">
         <v>128</v>
       </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A38" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="9" cm="1">
+        <f t="array" aca="1" ref="B38" ca="1">INDIRECT($A6&amp;"!"&amp;"F"&amp;COLUMN())*2</f>
+        <v>0.55800663232537728</v>
+      </c>
+      <c r="C38" s="9" cm="1">
+        <f t="array" aca="1" ref="C38" ca="1">INDIRECT($A6&amp;"!"&amp;"F"&amp;COLUMN())*2</f>
+        <v>1.1476020080479206</v>
+      </c>
+      <c r="D38" s="9" cm="1">
+        <f t="array" aca="1" ref="D38" ca="1">INDIRECT($A6&amp;"!"&amp;"F"&amp;COLUMN())*2</f>
+        <v>2.2791868192363651</v>
+      </c>
+      <c r="E38" s="9" cm="1">
+        <f t="array" aca="1" ref="E38" ca="1">INDIRECT($A6&amp;"!"&amp;"F"&amp;COLUMN())*2</f>
+        <v>4.5268897539748076</v>
+      </c>
+      <c r="F38" s="9" cm="1">
+        <f t="array" aca="1" ref="F38" ca="1">INDIRECT($A6&amp;"!"&amp;"F"&amp;COLUMN())*2</f>
+        <v>8.4007969276342536</v>
+      </c>
+      <c r="G38" s="9" cm="1">
+        <f t="array" aca="1" ref="G38" ca="1">INDIRECT($A6&amp;"!"&amp;"F"&amp;COLUMN())*2</f>
+        <v>14.262488039531807</v>
+      </c>
+      <c r="H38" s="9" cm="1">
+        <f t="array" aca="1" ref="H38" ca="1">INDIRECT($A6&amp;"!"&amp;"F"&amp;COLUMN())*2</f>
+        <v>15.447026594838322</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A39" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" s="9" cm="1">
+        <f t="array" aca="1" ref="B39" ca="1">INDIRECT($A7&amp;"!"&amp;"F"&amp;COLUMN())</f>
+        <v>0.32616742786381003</v>
+      </c>
+      <c r="C39" s="9" cm="1">
+        <f t="array" aca="1" ref="C39" ca="1">INDIRECT($A7&amp;"!"&amp;"F"&amp;COLUMN())</f>
+        <v>0.59282832452297574</v>
+      </c>
+      <c r="D39" s="9" cm="1">
+        <f t="array" aca="1" ref="D39" ca="1">INDIRECT($A7&amp;"!"&amp;"F"&amp;COLUMN())</f>
+        <v>0.98532642707820139</v>
+      </c>
+      <c r="E39" s="9" cm="1">
+        <f t="array" aca="1" ref="E39" ca="1">INDIRECT($A7&amp;"!"&amp;"F"&amp;COLUMN())</f>
+        <v>0.88078720656183007</v>
+      </c>
+      <c r="F39" s="9" cm="1">
+        <f t="array" aca="1" ref="F39" ca="1">INDIRECT($A7&amp;"!"&amp;"F"&amp;COLUMN())</f>
+        <v>1.0985406319489754</v>
+      </c>
+      <c r="G39" s="9" cm="1">
+        <f t="array" aca="1" ref="G39" ca="1">INDIRECT($A7&amp;"!"&amp;"F"&amp;COLUMN())</f>
+        <v>1.2766075018974448</v>
+      </c>
+      <c r="H39" s="9" cm="1">
+        <f t="array" aca="1" ref="H39" ca="1">INDIRECT($A7&amp;"!"&amp;"F"&amp;COLUMN())</f>
+        <v>1.8591763092368943</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A40" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="9" cm="1">
+        <f t="array" aca="1" ref="B40" ca="1">INDIRECT($A8&amp;"!"&amp;"F"&amp;COLUMN())</f>
+        <v>0.31269470404984423</v>
+      </c>
+      <c r="C40" s="9" cm="1">
+        <f t="array" aca="1" ref="C40" ca="1">INDIRECT($A8&amp;"!"&amp;"F"&amp;COLUMN())</f>
+        <v>0.65969626168224305</v>
+      </c>
+      <c r="D40" s="9" cm="1">
+        <f t="array" aca="1" ref="D40" ca="1">INDIRECT($A8&amp;"!"&amp;"F"&amp;COLUMN())</f>
+        <v>1.2147975077881621</v>
+      </c>
+      <c r="E40" s="9" cm="1">
+        <f t="array" aca="1" ref="E40" ca="1">INDIRECT($A8&amp;"!"&amp;"F"&amp;COLUMN())</f>
+        <v>2.160747663551402</v>
+      </c>
+      <c r="F40" s="9" cm="1">
+        <f t="array" aca="1" ref="F40" ca="1">INDIRECT($A8&amp;"!"&amp;"F"&amp;COLUMN())</f>
+        <v>3.3221573208722739</v>
+      </c>
+      <c r="G40" s="9" cm="1">
+        <f t="array" aca="1" ref="G40" ca="1">INDIRECT($A8&amp;"!"&amp;"F"&amp;COLUMN())</f>
+        <v>3.7784916926272065</v>
+      </c>
+      <c r="H40" s="9" cm="1">
+        <f t="array" aca="1" ref="H40" ca="1">INDIRECT($A8&amp;"!"&amp;"F"&amp;COLUMN())</f>
+        <v>3.6219236760124609</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A41" t="s">
+        <v>16</v>
+      </c>
+      <c r="B41" s="9" cm="1">
+        <f t="array" aca="1" ref="B41" ca="1">INDIRECT($A9&amp;"!"&amp;"F"&amp;COLUMN())*2</f>
+        <v>1.1465203093058396</v>
+      </c>
+      <c r="C41" s="9" cm="1">
+        <f t="array" aca="1" ref="C41" ca="1">INDIRECT($A9&amp;"!"&amp;"F"&amp;COLUMN())*2</f>
+        <v>2.3503096021094421</v>
+      </c>
+      <c r="D41" s="9" cm="1">
+        <f t="array" aca="1" ref="D41" ca="1">INDIRECT($A9&amp;"!"&amp;"F"&amp;COLUMN())*2</f>
+        <v>4.2211358990311973</v>
+      </c>
+      <c r="E41" s="9" cm="1">
+        <f t="array" aca="1" ref="E41" ca="1">INDIRECT($A9&amp;"!"&amp;"F"&amp;COLUMN())*2</f>
+        <v>6.8042544366426707</v>
+      </c>
+      <c r="F41" s="9" cm="1">
+        <f t="array" aca="1" ref="F41" ca="1">INDIRECT($A9&amp;"!"&amp;"F"&amp;COLUMN())*2</f>
+        <v>9.3988089947560223</v>
+      </c>
+      <c r="G41" s="9" cm="1">
+        <f t="array" aca="1" ref="G41" ca="1">INDIRECT($A9&amp;"!"&amp;"F"&amp;COLUMN())*2</f>
+        <v>9.8625751785026523</v>
+      </c>
+      <c r="H41" s="9" cm="1">
+        <f t="array" aca="1" ref="H41" ca="1">INDIRECT($A9&amp;"!"&amp;"F"&amp;COLUMN())*2</f>
+        <v>10.039611293810921</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A42" t="s">
+        <v>17</v>
+      </c>
+      <c r="B42" s="9" cm="1">
+        <f t="array" aca="1" ref="B42" ca="1">INDIRECT($A10&amp;"!"&amp;"F"&amp;COLUMN())*2</f>
+        <v>0.53206645866881375</v>
+      </c>
+      <c r="C42" s="9" cm="1">
+        <f t="array" aca="1" ref="C42" ca="1">INDIRECT($A10&amp;"!"&amp;"F"&amp;COLUMN())*2</f>
+        <v>0.9029673577563071</v>
+      </c>
+      <c r="D42" s="9" cm="1">
+        <f t="array" aca="1" ref="D42" ca="1">INDIRECT($A10&amp;"!"&amp;"F"&amp;COLUMN())*2</f>
+        <v>1.7291373792270532</v>
+      </c>
+      <c r="E42" s="9" cm="1">
+        <f t="array" aca="1" ref="E42" ca="1">INDIRECT($A10&amp;"!"&amp;"F"&amp;COLUMN())*2</f>
+        <v>3.2081210413311863</v>
+      </c>
+      <c r="F42" s="9" cm="1">
+        <f t="array" aca="1" ref="F42" ca="1">INDIRECT($A10&amp;"!"&amp;"F"&amp;COLUMN())*2</f>
+        <v>5.1456392243692974</v>
+      </c>
+      <c r="G42" s="9" cm="1">
+        <f t="array" aca="1" ref="G42" ca="1">INDIRECT($A10&amp;"!"&amp;"F"&amp;COLUMN())*2</f>
+        <v>7.1694606816961892</v>
+      </c>
+      <c r="H42" s="9" cm="1">
+        <f t="array" aca="1" ref="H42" ca="1">INDIRECT($A10&amp;"!"&amp;"F"&amp;COLUMN())*2</f>
+        <v>7.2140998892914654</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B43" s="9"/>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+      <c r="E43" s="9"/>
+      <c r="F43" s="9"/>
+      <c r="G43" s="9"/>
+      <c r="H43" s="9"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" s="9" cm="1">
-        <f t="array" aca="1" ref="B46" ca="1">INDIRECT($A6&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>11.45</v>
-      </c>
-      <c r="C46" s="9" cm="1">
-        <f t="array" aca="1" ref="C46" ca="1">INDIRECT($A6&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>9.91</v>
-      </c>
-      <c r="D46" s="9" cm="1">
-        <f t="array" aca="1" ref="D46" ca="1">INDIRECT($A6&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>9.91</v>
-      </c>
-      <c r="E46" s="9" cm="1">
-        <f t="array" aca="1" ref="E46" ca="1">INDIRECT($A6&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>10.09</v>
-      </c>
-      <c r="F46" s="9" cm="1">
-        <f t="array" aca="1" ref="F46" ca="1">INDIRECT($A6&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>10.84</v>
-      </c>
-      <c r="G46" s="9" cm="1">
-        <f t="array" aca="1" ref="G46" ca="1">INDIRECT($A6&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>13.22</v>
-      </c>
-      <c r="H46" s="9" cm="1">
-        <f t="array" aca="1" ref="H46" ca="1">INDIRECT($A6&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>34.950000000000003</v>
+      <c r="A46" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46">
+        <v>2</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>8</v>
+      </c>
+      <c r="E46">
+        <v>16</v>
+      </c>
+      <c r="F46">
+        <v>32</v>
+      </c>
+      <c r="G46">
+        <v>64</v>
+      </c>
+      <c r="H46">
+        <v>128</v>
       </c>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B47" s="9" cm="1">
-        <f t="array" aca="1" ref="B47" ca="1">INDIRECT($A7&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>11.96</v>
+        <f t="array" aca="1" ref="B47" ca="1">INDIRECT($A6&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>11.45</v>
       </c>
       <c r="C47" s="9" cm="1">
-        <f t="array" aca="1" ref="C47" ca="1">INDIRECT($A7&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>14.215</v>
+        <f t="array" aca="1" ref="C47" ca="1">INDIRECT($A6&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>9.91</v>
       </c>
       <c r="D47" s="9" cm="1">
-        <f t="array" aca="1" ref="D47" ca="1">INDIRECT($A7&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>19</v>
+        <f t="array" aca="1" ref="D47" ca="1">INDIRECT($A6&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>9.91</v>
       </c>
       <c r="E47" s="9" cm="1">
-        <f t="array" aca="1" ref="E47" ca="1">INDIRECT($A7&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>68.155000000000001</v>
+        <f t="array" aca="1" ref="E47" ca="1">INDIRECT($A6&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>10.09</v>
       </c>
       <c r="F47" s="9" cm="1">
-        <f t="array" aca="1" ref="F47" ca="1">INDIRECT($A7&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>79.414999999999992</v>
+        <f t="array" aca="1" ref="F47" ca="1">INDIRECT($A6&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>10.84</v>
       </c>
       <c r="G47" s="9" cm="1">
-        <f t="array" aca="1" ref="G47" ca="1">INDIRECT($A7&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>102.15</v>
+        <f t="array" aca="1" ref="G47" ca="1">INDIRECT($A6&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>13.22</v>
       </c>
       <c r="H47" s="9" cm="1">
-        <f t="array" aca="1" ref="H47" ca="1">INDIRECT($A7&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>136.17000000000002</v>
+        <f t="array" aca="1" ref="H47" ca="1">INDIRECT($A6&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>34.950000000000003</v>
       </c>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B48" s="9" cm="1">
-        <f t="array" aca="1" ref="B48" ca="1">INDIRECT($A8&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>9.91</v>
+        <f t="array" aca="1" ref="B48" ca="1">INDIRECT($A7&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>11.96</v>
       </c>
       <c r="C48" s="9" cm="1">
-        <f t="array" aca="1" ref="C48" ca="1">INDIRECT($A8&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>8.9</v>
+        <f t="array" aca="1" ref="C48" ca="1">INDIRECT($A7&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>14.215</v>
       </c>
       <c r="D48" s="9" cm="1">
-        <f t="array" aca="1" ref="D48" ca="1">INDIRECT($A8&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>10.09</v>
+        <f t="array" aca="1" ref="D48" ca="1">INDIRECT($A7&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>19</v>
       </c>
       <c r="E48" s="9" cm="1">
-        <f t="array" aca="1" ref="E48" ca="1">INDIRECT($A8&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>11.87</v>
+        <f t="array" aca="1" ref="E48" ca="1">INDIRECT($A7&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>68.155000000000001</v>
       </c>
       <c r="F48" s="9" cm="1">
-        <f t="array" aca="1" ref="F48" ca="1">INDIRECT($A8&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>17.95</v>
+        <f t="array" aca="1" ref="F48" ca="1">INDIRECT($A7&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>79.414999999999992</v>
       </c>
       <c r="G48" s="9" cm="1">
-        <f t="array" aca="1" ref="G48" ca="1">INDIRECT($A8&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>35.590000000000003</v>
+        <f t="array" aca="1" ref="G48" ca="1">INDIRECT($A7&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>102.15</v>
       </c>
       <c r="H48" s="9" cm="1">
-        <f t="array" aca="1" ref="H48" ca="1">INDIRECT($A8&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>74.459999999999994</v>
+        <f t="array" aca="1" ref="H48" ca="1">INDIRECT($A7&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>136.17000000000002</v>
       </c>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49" s="9" cm="1">
-        <f t="array" aca="1" ref="B49" ca="1">INDIRECT($A9&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>7.335</v>
+        <f t="array" aca="1" ref="B49" ca="1">INDIRECT($A8&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>9.91</v>
       </c>
       <c r="C49" s="9" cm="1">
-        <f t="array" aca="1" ref="C49" ca="1">INDIRECT($A9&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>7.17</v>
+        <f t="array" aca="1" ref="C49" ca="1">INDIRECT($A8&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>8.9</v>
       </c>
       <c r="D49" s="9" cm="1">
-        <f t="array" aca="1" ref="D49" ca="1">INDIRECT($A9&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>8.370000000000001</v>
+        <f t="array" aca="1" ref="D49" ca="1">INDIRECT($A8&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>10.09</v>
       </c>
       <c r="E49" s="9" cm="1">
-        <f t="array" aca="1" ref="E49" ca="1">INDIRECT($A9&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>10.4</v>
+        <f t="array" aca="1" ref="E49" ca="1">INDIRECT($A8&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>11.87</v>
       </c>
       <c r="F49" s="9" cm="1">
-        <f t="array" aca="1" ref="F49" ca="1">INDIRECT($A9&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>15.695</v>
+        <f t="array" aca="1" ref="F49" ca="1">INDIRECT($A8&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>17.95</v>
       </c>
       <c r="G49" s="9" cm="1">
-        <f t="array" aca="1" ref="G49" ca="1">INDIRECT($A9&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>34.335000000000001</v>
+        <f t="array" aca="1" ref="G49" ca="1">INDIRECT($A8&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>35.590000000000003</v>
       </c>
       <c r="H49" s="9" cm="1">
-        <f t="array" aca="1" ref="H49" ca="1">INDIRECT($A9&amp;"!"&amp;"D"&amp;COLUMN())</f>
-        <v>69.569999999999993</v>
+        <f t="array" aca="1" ref="H49" ca="1">INDIRECT($A8&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>74.459999999999994</v>
       </c>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
+        <v>16</v>
+      </c>
+      <c r="B50" s="9" cm="1">
+        <f t="array" aca="1" ref="B50" ca="1">INDIRECT($A9&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>7.335</v>
+      </c>
+      <c r="C50" s="9" cm="1">
+        <f t="array" aca="1" ref="C50" ca="1">INDIRECT($A9&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>7.17</v>
+      </c>
+      <c r="D50" s="9" cm="1">
+        <f t="array" aca="1" ref="D50" ca="1">INDIRECT($A9&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>8.370000000000001</v>
+      </c>
+      <c r="E50" s="9" cm="1">
+        <f t="array" aca="1" ref="E50" ca="1">INDIRECT($A9&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>10.4</v>
+      </c>
+      <c r="F50" s="9" cm="1">
+        <f t="array" aca="1" ref="F50" ca="1">INDIRECT($A9&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>15.695</v>
+      </c>
+      <c r="G50" s="9" cm="1">
+        <f t="array" aca="1" ref="G50" ca="1">INDIRECT($A9&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>34.335000000000001</v>
+      </c>
+      <c r="H50" s="9" cm="1">
+        <f t="array" aca="1" ref="H50" ca="1">INDIRECT($A9&amp;"!"&amp;"D"&amp;COLUMN())</f>
+        <v>69.569999999999993</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A51" t="s">
         <v>17</v>
       </c>
-      <c r="B50" s="9" cm="1">
-        <f t="array" aca="1" ref="B50" ca="1">INDIRECT($A10&amp;"!"&amp;"D"&amp;COLUMN())</f>
+      <c r="B51" s="9" cm="1">
+        <f t="array" aca="1" ref="B51" ca="1">INDIRECT($A10&amp;"!"&amp;"D"&amp;COLUMN())</f>
         <v>10.27</v>
       </c>
-      <c r="C50" s="9" cm="1">
-        <f t="array" aca="1" ref="C50" ca="1">INDIRECT($A10&amp;"!"&amp;"D"&amp;COLUMN())</f>
+      <c r="C51" s="9" cm="1">
+        <f t="array" aca="1" ref="C51" ca="1">INDIRECT($A10&amp;"!"&amp;"D"&amp;COLUMN())</f>
         <v>12.75</v>
       </c>
-      <c r="D50" s="9" cm="1">
-        <f t="array" aca="1" ref="D50" ca="1">INDIRECT($A10&amp;"!"&amp;"D"&amp;COLUMN())</f>
+      <c r="D51" s="9" cm="1">
+        <f t="array" aca="1" ref="D51" ca="1">INDIRECT($A10&amp;"!"&amp;"D"&amp;COLUMN())</f>
         <v>13.46</v>
       </c>
-      <c r="E50" s="9" cm="1">
-        <f t="array" aca="1" ref="E50" ca="1">INDIRECT($A10&amp;"!"&amp;"D"&amp;COLUMN())</f>
+      <c r="E51" s="9" cm="1">
+        <f t="array" aca="1" ref="E51" ca="1">INDIRECT($A10&amp;"!"&amp;"D"&amp;COLUMN())</f>
         <v>18.95</v>
       </c>
-      <c r="F50" s="9" cm="1">
-        <f t="array" aca="1" ref="F50" ca="1">INDIRECT($A10&amp;"!"&amp;"D"&amp;COLUMN())</f>
+      <c r="F51" s="9" cm="1">
+        <f t="array" aca="1" ref="F51" ca="1">INDIRECT($A10&amp;"!"&amp;"D"&amp;COLUMN())</f>
         <v>29.19</v>
       </c>
-      <c r="G50" s="9" cm="1">
-        <f t="array" aca="1" ref="G50" ca="1">INDIRECT($A10&amp;"!"&amp;"D"&amp;COLUMN())</f>
+      <c r="G51" s="9" cm="1">
+        <f t="array" aca="1" ref="G51" ca="1">INDIRECT($A10&amp;"!"&amp;"D"&amp;COLUMN())</f>
         <v>44.17</v>
       </c>
-      <c r="H50" s="9" cm="1">
-        <f t="array" aca="1" ref="H50" ca="1">INDIRECT($A10&amp;"!"&amp;"D"&amp;COLUMN())</f>
+      <c r="H51" s="9" cm="1">
+        <f t="array" aca="1" ref="H51" ca="1">INDIRECT($A10&amp;"!"&amp;"D"&amp;COLUMN())</f>
         <v>80.754999999999995</v>
       </c>
     </row>
